--- a/project1/messy_data/releases.xlsx
+++ b/project1/messy_data/releases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZhaojieYao/Dropbox/SpringBoard/SpringBoardProjects/project1/messy_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726F33B-7690-F44F-98FB-7F59AC019151}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D47D27B-7578-7749-A3B2-63ACBAB78B8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="55">
   <si>
     <t>--</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Washington</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Rhode Island</t>
@@ -1674,7 +1671,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="11">
         <v>235</v>
@@ -2284,7 +2281,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="14">
         <v>1651</v>
@@ -2406,7 +2403,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="15">
         <v>349</v>
@@ -2894,7 +2891,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="17">
         <v>106</v>
@@ -6310,7 +6307,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="34">
         <v>230</v>
@@ -7042,7 +7039,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="36">
         <v>269</v>
@@ -7867,8 +7864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8327,7 +8324,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="50">
         <v>229</v>
@@ -8937,7 +8934,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="50">
         <v>1505</v>
@@ -9059,7 +9056,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="50">
         <v>324</v>
@@ -9547,7 +9544,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="50">
         <v>104</v>
@@ -11836,7 +11833,7 @@
         <v>1092</v>
       </c>
       <c r="AF34" s="50" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AG34" s="50">
         <v>1287</v>
@@ -12963,7 +12960,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="50">
         <v>223</v>
@@ -13695,7 +13692,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="50">
         <v>262</v>
@@ -14435,7 +14432,7 @@
   <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14895,7 +14892,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="50">
         <v>6</v>
@@ -15505,7 +15502,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="50">
         <v>146</v>
@@ -15627,7 +15624,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="50">
         <v>22</v>
@@ -16115,7 +16112,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="50">
         <v>2</v>
@@ -16684,7 +16681,7 @@
         <v>754</v>
       </c>
       <c r="AB20" s="50" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AC20" s="50">
         <v>778</v>
@@ -19531,7 +19528,7 @@
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="50">
         <v>5</v>
@@ -20263,7 +20260,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="50">
         <v>6</v>
